--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/AB/10/seed3/result_data_KNN.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/AB/10/seed3/result_data_KNN.xlsx
@@ -550,7 +550,7 @@
         <v>-22.82</v>
       </c>
       <c r="B7" t="n">
-        <v>5.412000000000001</v>
+        <v>5.697000000000001</v>
       </c>
       <c r="C7" t="n">
         <v>-11.52</v>
@@ -598,7 +598,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>-21.274</v>
+        <v>-21.604</v>
       </c>
       <c r="B10" t="n">
         <v>6.17</v>
@@ -632,7 +632,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>-21.576</v>
+        <v>-21.606</v>
       </c>
       <c r="B12" t="n">
         <v>4.54</v>
@@ -686,7 +686,7 @@
         <v>-22.78</v>
       </c>
       <c r="B15" t="n">
-        <v>4.902000000000001</v>
+        <v>4.867</v>
       </c>
       <c r="C15" t="n">
         <v>-13.12</v>
@@ -734,7 +734,7 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>-22.028</v>
+        <v>-22.192</v>
       </c>
       <c r="B18" t="n">
         <v>4.35</v>
@@ -771,7 +771,7 @@
         <v>-19.14</v>
       </c>
       <c r="B20" t="n">
-        <v>8.026</v>
+        <v>7.031999999999999</v>
       </c>
       <c r="C20" t="n">
         <v>-14.88</v>
@@ -924,7 +924,7 @@
         <v>-21.48</v>
       </c>
       <c r="B29" t="n">
-        <v>5.562</v>
+        <v>5.645</v>
       </c>
       <c r="C29" t="n">
         <v>-11.02</v>
@@ -941,7 +941,7 @@
         <v>-21.31</v>
       </c>
       <c r="B30" t="n">
-        <v>6.076</v>
+        <v>6.02</v>
       </c>
       <c r="C30" t="n">
         <v>-10.71</v>
@@ -958,7 +958,7 @@
         <v>-21.76</v>
       </c>
       <c r="B31" t="n">
-        <v>6.159999999999999</v>
+        <v>6.367000000000001</v>
       </c>
       <c r="C31" t="n">
         <v>-11.3</v>
@@ -1057,7 +1057,7 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>-19.572</v>
+        <v>-19.92</v>
       </c>
       <c r="B37" t="n">
         <v>9.41</v>
@@ -1111,7 +1111,7 @@
         <v>-19.21</v>
       </c>
       <c r="B40" t="n">
-        <v>9.35</v>
+        <v>9.327999999999999</v>
       </c>
       <c r="C40" t="n">
         <v>-12.94</v>
@@ -1363,7 +1363,7 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>-21.576</v>
+        <v>-21.795</v>
       </c>
       <c r="B55" t="n">
         <v>5.38</v>
@@ -1584,10 +1584,10 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>-21.586</v>
+        <v>-21.507</v>
       </c>
       <c r="B68" t="n">
-        <v>4.665999999999999</v>
+        <v>5.881</v>
       </c>
       <c r="C68" t="n">
         <v>-9.98</v>
@@ -1723,7 +1723,7 @@
         <v>-20.94</v>
       </c>
       <c r="B76" t="n">
-        <v>6.004</v>
+        <v>6.308</v>
       </c>
       <c r="C76" t="n">
         <v>-15.06</v>
@@ -1737,7 +1737,7 @@
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>-20.864</v>
+        <v>-20.637</v>
       </c>
       <c r="B77" t="n">
         <v>10.09</v>
@@ -1754,7 +1754,7 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>-19.62</v>
+        <v>-20.126</v>
       </c>
       <c r="B78" t="n">
         <v>9.640000000000001</v>
@@ -1910,7 +1910,7 @@
         <v>-23.05</v>
       </c>
       <c r="B87" t="n">
-        <v>4.522</v>
+        <v>4.836</v>
       </c>
       <c r="C87" t="n">
         <v>-15.19</v>
@@ -1927,7 +1927,7 @@
         <v>-22.69</v>
       </c>
       <c r="B88" t="n">
-        <v>4.48</v>
+        <v>5.058000000000001</v>
       </c>
       <c r="C88" t="n">
         <v>-14.65</v>
@@ -2063,7 +2063,7 @@
         <v>-20.86</v>
       </c>
       <c r="B96" t="n">
-        <v>7.165999999999999</v>
+        <v>6.692</v>
       </c>
       <c r="C96" t="n">
         <v>-10.59</v>
@@ -2097,7 +2097,7 @@
         <v>-21.08</v>
       </c>
       <c r="B98" t="n">
-        <v>5.271999999999999</v>
+        <v>5.095000000000001</v>
       </c>
       <c r="C98" t="n">
         <v>-13.95</v>
@@ -2148,7 +2148,7 @@
         <v>-19.85</v>
       </c>
       <c r="B101" t="n">
-        <v>8.353999999999999</v>
+        <v>7.782000000000001</v>
       </c>
       <c r="C101" t="n">
         <v>-11.07</v>
@@ -2165,7 +2165,7 @@
         <v>-20.36</v>
       </c>
       <c r="B102" t="n">
-        <v>7.998</v>
+        <v>7.747</v>
       </c>
       <c r="C102" t="n">
         <v>-12</v>
